--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H2">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.667552</v>
+        <v>57.48524866666667</v>
       </c>
       <c r="N2">
-        <v>263.002656</v>
+        <v>172.455746</v>
       </c>
       <c r="O2">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="P2">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="Q2">
-        <v>646.923500790112</v>
+        <v>464.6065869507494</v>
       </c>
       <c r="R2">
-        <v>5822.311507111008</v>
+        <v>4181.459282556744</v>
       </c>
       <c r="S2">
-        <v>0.09896446036554585</v>
+        <v>0.06199146534374567</v>
       </c>
       <c r="T2">
-        <v>0.09896446036554585</v>
+        <v>0.06199146534374567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H3">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>72.97955566666667</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="N3">
         <v>218.938667</v>
       </c>
       <c r="O3">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="P3">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="Q3">
-        <v>538.5366485194756</v>
+        <v>589.8344890544653</v>
       </c>
       <c r="R3">
-        <v>4846.829836675282</v>
+        <v>5308.510401490188</v>
       </c>
       <c r="S3">
-        <v>0.08238375749637655</v>
+        <v>0.07870035706282799</v>
       </c>
       <c r="T3">
-        <v>0.08238375749637655</v>
+        <v>0.07870035706282801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H4">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.06943633333334</v>
+        <v>50.94830300000001</v>
       </c>
       <c r="N4">
-        <v>123.208309</v>
+        <v>152.844909</v>
       </c>
       <c r="O4">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="P4">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="Q4">
-        <v>303.0629112152764</v>
+        <v>411.7737631269641</v>
       </c>
       <c r="R4">
-        <v>2727.566200937487</v>
+        <v>3705.963868142677</v>
       </c>
       <c r="S4">
-        <v>0.04636167557462395</v>
+        <v>0.05494209441558103</v>
       </c>
       <c r="T4">
-        <v>0.04636167557462396</v>
+        <v>0.05494209441558104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H5">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I5">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J5">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.37117366666666</v>
+        <v>74.08852933333333</v>
       </c>
       <c r="N5">
-        <v>124.113521</v>
+        <v>222.265588</v>
       </c>
       <c r="O5">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="P5">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="Q5">
-        <v>305.2895157861336</v>
+        <v>598.7974227155146</v>
       </c>
       <c r="R5">
-        <v>2747.605642075203</v>
+        <v>5389.176804439632</v>
       </c>
       <c r="S5">
-        <v>0.04670229501344975</v>
+        <v>0.07989626217272719</v>
       </c>
       <c r="T5">
-        <v>0.04670229501344975</v>
+        <v>0.0798962621727272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J6">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.667552</v>
+        <v>57.48524866666667</v>
       </c>
       <c r="N6">
-        <v>263.002656</v>
+        <v>172.455746</v>
       </c>
       <c r="O6">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="P6">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="Q6">
-        <v>1165.808132768981</v>
+        <v>764.4421325902568</v>
       </c>
       <c r="R6">
-        <v>10492.27319492083</v>
+        <v>6879.979193312312</v>
       </c>
       <c r="S6">
-        <v>0.1783419099914237</v>
+        <v>0.1019978822960411</v>
       </c>
       <c r="T6">
-        <v>0.1783419099914237</v>
+        <v>0.1019978822960411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J7">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>72.97955566666667</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="N7">
         <v>218.938667</v>
       </c>
       <c r="O7">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="P7">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="Q7">
-        <v>970.4863154165249</v>
+        <v>970.4863154165247</v>
       </c>
       <c r="R7">
         <v>8734.376838748723</v>
       </c>
       <c r="S7">
-        <v>0.1484621510581106</v>
+        <v>0.1294899178756163</v>
       </c>
       <c r="T7">
-        <v>0.1484621510581105</v>
+        <v>0.1294899178756163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>39.894172</v>
       </c>
       <c r="I8">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J8">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.06943633333334</v>
+        <v>50.94830300000001</v>
       </c>
       <c r="N8">
-        <v>123.208309</v>
+        <v>152.844909</v>
       </c>
       <c r="O8">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="P8">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="Q8">
-        <v>546.1437190083498</v>
+        <v>677.5134543300387</v>
       </c>
       <c r="R8">
-        <v>4915.293471075148</v>
+        <v>6097.621088970349</v>
       </c>
       <c r="S8">
-        <v>0.08354746483576773</v>
+        <v>0.09039917427704103</v>
       </c>
       <c r="T8">
-        <v>0.08354746483576773</v>
+        <v>0.09039917427704103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>39.894172</v>
       </c>
       <c r="I9">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J9">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.37117366666666</v>
+        <v>74.08852933333333</v>
       </c>
       <c r="N9">
-        <v>124.113521</v>
+        <v>222.265588</v>
       </c>
       <c r="O9">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="P9">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="Q9">
-        <v>550.1562393666235</v>
+        <v>985.2335108170149</v>
       </c>
       <c r="R9">
-        <v>4951.406154299611</v>
+        <v>8867.101597353134</v>
       </c>
       <c r="S9">
-        <v>0.08416128843543189</v>
+        <v>0.1314576046847657</v>
       </c>
       <c r="T9">
-        <v>0.08416128843543187</v>
+        <v>0.1314576046847657</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H10">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.667552</v>
+        <v>57.48524866666667</v>
       </c>
       <c r="N10">
-        <v>263.002656</v>
+        <v>172.455746</v>
       </c>
       <c r="O10">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="P10">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="Q10">
-        <v>398.0611825899521</v>
+        <v>332.8107130234198</v>
       </c>
       <c r="R10">
-        <v>3582.550643309568</v>
+        <v>2995.296417210778</v>
       </c>
       <c r="S10">
-        <v>0.06089423259376473</v>
+        <v>0.04440622316145863</v>
       </c>
       <c r="T10">
-        <v>0.06089423259376472</v>
+        <v>0.04440622316145863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H11">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I11">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J11">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>72.97955566666667</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="N11">
         <v>218.938667</v>
       </c>
       <c r="O11">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="P11">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="Q11">
-        <v>331.3692189507307</v>
+        <v>422.5149672465367</v>
       </c>
       <c r="R11">
-        <v>2982.322970556576</v>
+        <v>3802.634705218831</v>
       </c>
       <c r="S11">
-        <v>0.05069189153765354</v>
+        <v>0.05637527035761555</v>
       </c>
       <c r="T11">
-        <v>0.05069189153765353</v>
+        <v>0.05637527035761556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H12">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I12">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J12">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>41.06943633333334</v>
+        <v>50.94830300000001</v>
       </c>
       <c r="N12">
-        <v>123.208309</v>
+        <v>152.844909</v>
       </c>
       <c r="O12">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="P12">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="Q12">
-        <v>186.4788969486614</v>
+        <v>294.9650813391264</v>
       </c>
       <c r="R12">
-        <v>1678.310072537952</v>
+        <v>2654.685732052138</v>
       </c>
       <c r="S12">
-        <v>0.02852699489746003</v>
+        <v>0.03935656129513271</v>
       </c>
       <c r="T12">
-        <v>0.02852699489746003</v>
+        <v>0.03935656129513272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H13">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I13">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J13">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.37117366666666</v>
+        <v>74.08852933333333</v>
       </c>
       <c r="N13">
-        <v>124.113521</v>
+        <v>222.265588</v>
       </c>
       <c r="O13">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="P13">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="Q13">
-        <v>187.8489582426987</v>
+        <v>428.9353677020982</v>
       </c>
       <c r="R13">
-        <v>1690.640624184288</v>
+        <v>3860.418309318884</v>
       </c>
       <c r="S13">
-        <v>0.02873658285719024</v>
+        <v>0.05723193068812459</v>
       </c>
       <c r="T13">
-        <v>0.02873658285719024</v>
+        <v>0.0572319306881246</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H14">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I14">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J14">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.667552</v>
+        <v>57.48524866666667</v>
       </c>
       <c r="N14">
-        <v>263.002656</v>
+        <v>172.455746</v>
       </c>
       <c r="O14">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="P14">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="Q14">
-        <v>146.6954005523627</v>
+        <v>124.3681474618609</v>
       </c>
       <c r="R14">
-        <v>1320.258604971264</v>
+        <v>1119.313327156748</v>
       </c>
       <c r="S14">
-        <v>0.02244103226431138</v>
+        <v>0.01659417649208894</v>
       </c>
       <c r="T14">
-        <v>0.02244103226431137</v>
+        <v>0.01659417649208894</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H15">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I15">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J15">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>72.97955566666667</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="N15">
         <v>218.938667</v>
       </c>
       <c r="O15">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="P15">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="Q15">
-        <v>122.1177608638498</v>
+        <v>157.8897604406829</v>
       </c>
       <c r="R15">
-        <v>1099.059847774648</v>
+        <v>1421.007843966146</v>
       </c>
       <c r="S15">
-        <v>0.0186812170066158</v>
+        <v>0.02106689377076881</v>
       </c>
       <c r="T15">
-        <v>0.0186812170066158</v>
+        <v>0.02106689377076881</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H16">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I16">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J16">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.06943633333334</v>
+        <v>50.94830300000001</v>
       </c>
       <c r="N16">
-        <v>123.208309</v>
+        <v>152.844909</v>
       </c>
       <c r="O16">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="P16">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="Q16">
-        <v>68.72209016829957</v>
+        <v>110.2256006089047</v>
       </c>
       <c r="R16">
-        <v>618.4988115146962</v>
+        <v>992.0304054801422</v>
       </c>
       <c r="S16">
-        <v>0.01051290386018096</v>
+        <v>0.01470716664820941</v>
       </c>
       <c r="T16">
-        <v>0.01051290386018096</v>
+        <v>0.01470716664820941</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H17">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I17">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J17">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.37117366666666</v>
+        <v>74.08852933333333</v>
       </c>
       <c r="N17">
-        <v>124.113521</v>
+        <v>222.265588</v>
       </c>
       <c r="O17">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="P17">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="Q17">
-        <v>69.22699167364712</v>
+        <v>160.2890020497271</v>
       </c>
       <c r="R17">
-        <v>623.042925062824</v>
+        <v>1442.601018447544</v>
       </c>
       <c r="S17">
-        <v>0.01059014221209343</v>
+        <v>0.02138701945825525</v>
       </c>
       <c r="T17">
-        <v>0.01059014221209343</v>
+        <v>0.02138701945825525</v>
       </c>
     </row>
   </sheetData>
